--- a/src/test/Prueba.xlsx
+++ b/src/test/Prueba.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Documentos\Kiviu\KiviuNVCH\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4151B4-88CB-4948-B53C-F096BF2B5EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A6E127-5F95-49CA-9521-4CD7F5DED0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B8C9BE44-7E3A-4AF8-B695-6EB949B7B004}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B8C9BE44-7E3A-4AF8-B695-6EB949B7B004}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Prestamos Consumo y Comercial" sheetId="1" r:id="rId1"/>
-    <sheet name="1.Cobranza y Mora" sheetId="2" r:id="rId2"/>
-    <sheet name="6.Tarjeta Credito" sheetId="3" r:id="rId3"/>
-    <sheet name="Ciclo Préstamos 1" sheetId="4" r:id="rId4"/>
-    <sheet name="Ciclo Préstamos 2° revisión" sheetId="5" r:id="rId5"/>
-    <sheet name="3 PLAFT 2023" sheetId="6" r:id="rId6"/>
+    <sheet name="Template" sheetId="7" r:id="rId2"/>
+    <sheet name="1.Cobranza y Mora" sheetId="2" r:id="rId3"/>
+    <sheet name="6.Tarjeta Credito" sheetId="3" r:id="rId4"/>
+    <sheet name="Ciclo Préstamos 1" sheetId="4" r:id="rId5"/>
+    <sheet name="Ciclo Préstamos 2° revisión" sheetId="5" r:id="rId6"/>
+    <sheet name="3 PLAFT 2023" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="367">
   <si>
     <t>PRIMERA REVISION</t>
   </si>
@@ -93,9 +94,6 @@
     <t>Ciclo Préstamos 1° revisión</t>
   </si>
   <si>
-    <t>Préstamos Consumo y Comercial 1° revisión</t>
-  </si>
-  <si>
     <t>RLV</t>
   </si>
   <si>
@@ -108,21 +106,12 @@
     <t>Normativa</t>
   </si>
   <si>
-    <t>NCS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Normativa Consumo </t>
   </si>
   <si>
-    <t>NCM</t>
-  </si>
-  <si>
     <t>Normativa Comercial</t>
   </si>
   <si>
-    <t>ORG</t>
-  </si>
-  <si>
     <t>Organigrama</t>
   </si>
   <si>
@@ -168,9 +157,6 @@
     <t>Análisis Consumo</t>
   </si>
   <si>
-    <t>PPA</t>
-  </si>
-  <si>
     <t>Prestamos Pre Aprobados - Cumpl.7319</t>
   </si>
   <si>
@@ -192,9 +178,6 @@
     <t>Análisis Comercial</t>
   </si>
   <si>
-    <t>CCA</t>
-  </si>
-  <si>
     <t>Cartera Comercial y Asimilable</t>
   </si>
   <si>
@@ -210,15 +193,9 @@
     <t>Análisis Altas Líneas Comerciales</t>
   </si>
   <si>
-    <t>CPC</t>
-  </si>
-  <si>
     <t>Cobranza de Préstamos Comerciales</t>
   </si>
   <si>
-    <t>CCR</t>
-  </si>
-  <si>
     <t>Comité de Crédito</t>
   </si>
   <si>
@@ -231,9 +208,6 @@
     <t>Resumen Comité de Crédito</t>
   </si>
   <si>
-    <t>RIF</t>
-  </si>
-  <si>
     <t>RI</t>
   </si>
   <si>
@@ -243,21 +217,12 @@
     <t>Evidencia de Monitoreo</t>
   </si>
   <si>
-    <t>TRM</t>
-  </si>
-  <si>
     <t>TR Monitoreo de Préstamos</t>
   </si>
   <si>
-    <t>MPL</t>
-  </si>
-  <si>
     <t>Monitoreo de Préstamos por Planeamiento</t>
   </si>
   <si>
-    <t>MGR</t>
-  </si>
-  <si>
     <t>Monitoreo de Préstamos por Riesgo Crediticio</t>
   </si>
   <si>
@@ -666,207 +631,54 @@
     <t>Gestión de Cobranza y Adm.Cartera M. 2° revisión</t>
   </si>
   <si>
-    <t>PR2</t>
-  </si>
-  <si>
     <t>Ciclo Préstamos 2° revisión</t>
   </si>
   <si>
-    <t>CC2</t>
-  </si>
-  <si>
-    <t>Préstamos Consumo y Comercial 2° revisión</t>
-  </si>
-  <si>
-    <t>1.2.1.1.NRM</t>
-  </si>
-  <si>
-    <t>1.2.1.1.1.NCS</t>
-  </si>
-  <si>
-    <t>1.2.1.1.2.NCM</t>
-  </si>
-  <si>
-    <t>1.2.1.1.3.ORG</t>
-  </si>
-  <si>
-    <t>1.2.1.2.CRC</t>
-  </si>
-  <si>
-    <t>1.2.1.2.1.TRC</t>
-  </si>
-  <si>
-    <t>1.2.1.2.2.CR1</t>
-  </si>
-  <si>
-    <t>1.2.1.2.3.CR2</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>1.2.1.3.CON</t>
-  </si>
-  <si>
-    <t>ACS</t>
-  </si>
-  <si>
     <t>Altas Consumo</t>
   </si>
   <si>
-    <t>1.2.1.3.1.ACS</t>
-  </si>
-  <si>
-    <t>RCS</t>
-  </si>
-  <si>
     <t>Reproceso Consumo</t>
   </si>
   <si>
-    <t>1.2.1.3.2.RCS</t>
-  </si>
-  <si>
-    <t>REN</t>
-  </si>
-  <si>
-    <t>1.2.1.3.3.REN</t>
-  </si>
-  <si>
-    <t>1.2.1.3.4.PPA</t>
-  </si>
-  <si>
-    <t>1.2.1.4.COM</t>
-  </si>
-  <si>
-    <t>CCS</t>
-  </si>
-  <si>
     <t>Cartera Comercial Seguimiento</t>
   </si>
   <si>
-    <t>1.2.1.4.1.CCS</t>
-  </si>
-  <si>
-    <t>ALC</t>
-  </si>
-  <si>
     <t>Altas Líneas Comerciales</t>
   </si>
   <si>
-    <t>1.2.1.4.2.ALC</t>
-  </si>
-  <si>
-    <t>1.2.1.4.3.CPC</t>
-  </si>
-  <si>
-    <t>ORV</t>
-  </si>
-  <si>
     <t>Otras Revisiones</t>
   </si>
   <si>
-    <t>1.2.1.5.ORV</t>
-  </si>
-  <si>
-    <t>CGR</t>
-  </si>
-  <si>
     <t>Caida de Garantías</t>
   </si>
   <si>
-    <t>1.2.1.5.1.CGR</t>
-  </si>
-  <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>Cruce Base de Morosos</t>
   </si>
   <si>
-    <t>1.2.1.5.2.MOR</t>
-  </si>
-  <si>
-    <t>RDI</t>
-  </si>
-  <si>
     <t>Renta Diferida</t>
   </si>
   <si>
-    <t>1.2.1.5.3.RDI</t>
-  </si>
-  <si>
-    <t>CIP</t>
-  </si>
-  <si>
     <t>Créditos Inversión Productiva</t>
   </si>
   <si>
-    <t>1.2.1.5.4.CIP</t>
-  </si>
-  <si>
-    <t>1.2.1.6.CCR</t>
-  </si>
-  <si>
-    <t>1.2.1.6.1.TRC</t>
-  </si>
-  <si>
-    <t>1.2.1.6.2.CCA</t>
-  </si>
-  <si>
-    <t>1.2.1.6.3.CCR</t>
-  </si>
-  <si>
-    <t>1.2.1.7.RIF</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
     <t>TR Verificación de Régimen Informativo</t>
   </si>
   <si>
-    <t>1.2.1.7.1.TR</t>
-  </si>
-  <si>
-    <t>VAL</t>
-  </si>
-  <si>
     <t>Validaciones RI Deudores por NOP y BCRA</t>
   </si>
   <si>
-    <t>1.2.1.7.2.VAL</t>
-  </si>
-  <si>
-    <t>CLE</t>
-  </si>
-  <si>
     <t>Controles Entidad sobre RI Deudores</t>
   </si>
   <si>
-    <t>1.2.1.7.3.CLE</t>
-  </si>
-  <si>
-    <t>1.2.1.8.MON</t>
-  </si>
-  <si>
     <t>TR Monitoreo</t>
   </si>
   <si>
-    <t>1.2.1.8.1.TRM</t>
-  </si>
-  <si>
     <t>Monitoreo por Planeamiento</t>
   </si>
   <si>
-    <t>1.2.1.8.2.MPL</t>
-  </si>
-  <si>
     <t>Monitoreo por Gestión de Riesgos</t>
   </si>
   <si>
-    <t>1.2.1.8.3.MGR</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -1320,15 +1132,6 @@
     <t>Predeterminado</t>
   </si>
   <si>
-    <t>HorasSubTarea</t>
-  </si>
-  <si>
-    <t>HorasMuestra</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
     <t>Fecha Inicial</t>
   </si>
   <si>
@@ -1339,6 +1142,9 @@
   </si>
   <si>
     <t>2024-09-01</t>
+  </si>
+  <si>
+    <t>2024-12-01</t>
   </si>
 </sst>
 </file>
@@ -1912,16 +1718,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F59E538-12EF-4159-89BC-BF04CBE825B4}">
-  <dimension ref="B1:L42"/>
+  <dimension ref="B1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="57.140625" customWidth="1"/>
     <col min="7" max="7" width="45.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1930,16 +1737,16 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
       <c r="G1" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>431</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -1965,73 +1772,70 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="J4" t="s">
-        <v>425</v>
-      </c>
-      <c r="K4" t="s">
-        <v>426</v>
-      </c>
-      <c r="L4" t="s">
-        <v>427</v>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>430</v>
-      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>96</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6"/>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -2042,10 +1846,12 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -2057,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
@@ -2070,14 +1876,12 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -2086,14 +1890,14 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -2104,8 +1908,10 @@
       <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
@@ -2119,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4" t="s">
@@ -2132,30 +1938,29 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -2166,13 +1971,14 @@
       <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -2182,11 +1988,11 @@
         <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -2198,11 +2004,11 @@
         <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -2214,11 +2020,11 @@
         <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -2227,14 +2033,12 @@
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
         <v>4</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4" t="s">
-        <v>40</v>
+      <c r="D20" s="2"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -2243,14 +2047,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -2261,10 +2065,14 @@
       <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12" t="s">
-        <v>44</v>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -2278,9 +2086,11 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
       <c r="F23" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -2295,10 +2105,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -2310,13 +2120,11 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -2328,13 +2136,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -2348,9 +2156,11 @@
       <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
       <c r="F27" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -2365,10 +2175,10 @@
         <v>2</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -2383,10 +2193,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G29" s="4"/>
     </row>
@@ -2401,10 +2211,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G30" s="4"/>
     </row>
@@ -2413,16 +2223,12 @@
         <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G31" s="4"/>
     </row>
@@ -2431,16 +2237,14 @@
         <v>1</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G32" s="4"/>
     </row>
@@ -2451,10 +2255,12 @@
       <c r="C33" s="2">
         <v>5</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -2466,11 +2272,11 @@
         <v>5</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G34" s="4"/>
     </row>
@@ -2479,14 +2285,12 @@
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>5</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="2"/>
       <c r="F35" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G35" s="4"/>
     </row>
@@ -2495,14 +2299,12 @@
         <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G36" s="4"/>
     </row>
@@ -2511,12 +2313,14 @@
         <v>1</v>
       </c>
       <c r="C37" s="2">
-        <v>6</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G37" s="4"/>
     </row>
@@ -2527,10 +2331,12 @@
       <c r="C38" s="2">
         <v>7</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G38" s="4"/>
     </row>
@@ -2542,11 +2348,11 @@
         <v>7</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G39" s="4"/>
     </row>
@@ -2555,61 +2361,1224 @@
         <v>1</v>
       </c>
       <c r="C40" s="2">
-        <v>7</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>7</v>
-      </c>
-      <c r="D41" s="2">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="4"/>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>1</v>
       </c>
       <c r="C42" s="2">
-        <v>97</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="F56" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>6</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>7</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>7</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>7</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1" xr:uid="{CB261A6A-C3D7-4CD8-9FA8-51BC424243B7}"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{CB261A6A-C3D7-4CD8-9FA8-51BC424243B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AF4BE5-8618-4432-9757-FC016EACB618}">
+  <dimension ref="B1:L40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="57.140625" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>96</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>97</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{AED57B91-8DB5-4127-B080-DFAE16EC96E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE22A941-163C-45F2-B917-1A040AAB68BA}">
   <dimension ref="B1:M36"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,6 +3601,18 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="3" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2719,10 +3700,10 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -2743,10 +3724,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -2767,13 +3748,13 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -2793,13 +3774,13 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -2821,13 +3802,13 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K10" s="4"/>
     </row>
@@ -2849,13 +3830,13 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K11" s="4"/>
     </row>
@@ -2877,13 +3858,13 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K12" s="4"/>
     </row>
@@ -2903,13 +3884,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="K13" s="4"/>
     </row>
@@ -2931,13 +3912,13 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -2959,13 +3940,13 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K15" s="4"/>
     </row>
@@ -2987,13 +3968,13 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K16" s="4"/>
     </row>
@@ -3013,13 +3994,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -3041,13 +4022,13 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K18" s="4"/>
     </row>
@@ -3069,13 +4050,13 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -3097,13 +4078,13 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K20" s="4"/>
     </row>
@@ -3125,13 +4106,13 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K21" s="4"/>
     </row>
@@ -3151,13 +4132,13 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="K22" s="4"/>
     </row>
@@ -3179,13 +4160,13 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -3207,13 +4188,13 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K24" s="4"/>
     </row>
@@ -3235,13 +4216,13 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K25" s="4"/>
     </row>
@@ -3263,13 +4244,13 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K26" s="4"/>
     </row>
@@ -3291,13 +4272,13 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K27" s="4"/>
     </row>
@@ -3319,13 +4300,13 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K28" s="4"/>
     </row>
@@ -3347,13 +4328,13 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="K29" s="4"/>
     </row>
@@ -3373,13 +4354,13 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K30" s="4"/>
     </row>
@@ -3401,13 +4382,13 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K31" s="4"/>
     </row>
@@ -3429,13 +4410,13 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="K32" s="4"/>
     </row>
@@ -3455,13 +4436,13 @@
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
       <c r="H33" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="13"/>
@@ -3481,12 +4462,12 @@
         <v>97</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -3499,7 +4480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E264F178-2D47-4CA8-AD08-37374F01E984}">
   <dimension ref="A3:K35"/>
   <sheetViews>
@@ -3586,7 +4567,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="16" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -3604,16 +4585,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3630,16 +4611,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="J9" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3656,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3679,13 +4660,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -3703,16 +4684,16 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3729,16 +4710,16 @@
         <v>2</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3755,13 +4736,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -3779,16 +4760,16 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3805,16 +4786,16 @@
         <v>2</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -3831,13 +4812,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -3854,16 +4835,16 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -3880,13 +4861,13 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -3903,16 +4884,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -3929,16 +4910,16 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -3955,16 +4936,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -3981,16 +4962,16 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -4007,13 +4988,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -4030,16 +5011,16 @@
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -4056,13 +5037,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -4079,16 +5060,16 @@
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -4105,13 +5086,13 @@
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -4128,16 +5109,16 @@
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -4154,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -4177,16 +5158,16 @@
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -4203,13 +5184,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -4226,16 +5207,16 @@
         <v>1</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -4246,18 +5227,18 @@
         <v>98</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="22"/>
       <c r="I34" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -4268,18 +5249,18 @@
         <v>99</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4287,7 +5268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E52739-C5DE-46EB-BBDF-7BAA957D983A}">
   <dimension ref="A3:K18"/>
   <sheetViews>
@@ -4380,20 +5361,20 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -4410,10 +5391,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -4434,10 +5415,10 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" ref="J8:J9" si="0">+CONCATENATE(B8,".",C8,".",D8,".",E8,".",H8)</f>
@@ -4461,10 +5442,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4490,10 +5471,10 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" ref="J10:J12" si="1">+CONCATENATE(B10,".",C10,".",D10,".",E10,".",F10,".",H10)</f>
@@ -4519,10 +5500,10 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4548,10 +5529,10 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4575,10 +5556,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J13" s="4" t="str">
         <f>+CONCATENATE(B13,".",C13,".",D13,".",E13,".",H13)</f>
@@ -4604,10 +5585,10 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" ref="J14:J16" si="2">+CONCATENATE(B14,".",C14,".",D14,".",E14,".",F14,".",H14)</f>
@@ -4633,10 +5614,10 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4662,10 +5643,10 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4689,10 +5670,10 @@
       <c r="F17" s="4"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J17" s="4" t="str">
         <f>+CONCATENATE(B17,".",C17,".",D17,".",E17,".",H17)</f>
@@ -4716,1067 +5697,13 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804C8477-9956-4182-A264-727AC81A201E}">
-  <dimension ref="B3:K42"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>96</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>4</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>4</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2">
-        <v>4</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>6</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>6</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>6</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>6</v>
-      </c>
-      <c r="F33" s="2">
-        <v>3</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <v>7</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>7</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>7</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <v>7</v>
-      </c>
-      <c r="F37" s="2">
-        <v>3</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>8</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>8</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>8</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>8</v>
-      </c>
-      <c r="F41" s="2">
-        <v>3</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2">
-        <v>97</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5784,6 +5711,582 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804C8477-9956-4182-A264-727AC81A201E}">
+  <dimension ref="B3:G41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="F20" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE59966-E762-4405-8853-510570944EF0}">
   <dimension ref="B2:K68"/>
   <sheetViews>
@@ -5864,11 +6367,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
@@ -5882,20 +6385,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="K7" s="29"/>
     </row>
@@ -5904,7 +6407,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="22">
@@ -5913,10 +6416,10 @@
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="22" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="29"/>
@@ -5926,7 +6429,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="22">
@@ -5937,13 +6440,13 @@
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>20</v>
-      </c>
       <c r="J9" s="32" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="K9" s="29"/>
     </row>
@@ -5952,7 +6455,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="22">
@@ -5963,13 +6466,13 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32" t="s">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="K10" s="29"/>
     </row>
@@ -5978,7 +6481,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="22">
@@ -5989,13 +6492,13 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="K11" s="29"/>
     </row>
@@ -6004,7 +6507,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="22">
@@ -6015,13 +6518,13 @@
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="K12" s="29"/>
     </row>
@@ -6030,7 +6533,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="22">
@@ -6039,10 +6542,10 @@
       <c r="F13" s="22"/>
       <c r="G13" s="35"/>
       <c r="H13" s="22" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="29"/>
@@ -6052,7 +6555,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="22">
@@ -6064,7 +6567,7 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="29"/>
@@ -6074,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="22">
@@ -6084,16 +6587,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="K15" s="29"/>
     </row>
@@ -6102,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="22">
@@ -6112,16 +6615,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="K16" s="29"/>
     </row>
@@ -6130,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="22">
@@ -6141,13 +6644,13 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="K17" s="29"/>
     </row>
@@ -6156,7 +6659,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="22">
@@ -6168,7 +6671,7 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="29"/>
@@ -6178,7 +6681,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="22">
@@ -6188,16 +6691,16 @@
         <v>2</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="K19" s="29"/>
     </row>
@@ -6206,7 +6709,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="22">
@@ -6215,10 +6718,10 @@
       <c r="F20" s="22"/>
       <c r="G20" s="35"/>
       <c r="H20" s="22" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="29"/>
@@ -6228,7 +6731,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="22">
@@ -6239,13 +6742,13 @@
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="32" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="K21" s="29"/>
     </row>
@@ -6254,7 +6757,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="22">
@@ -6265,13 +6768,13 @@
       </c>
       <c r="G22" s="32"/>
       <c r="H22" s="32" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="K22" s="29"/>
     </row>
@@ -6280,7 +6783,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="22">
@@ -6291,13 +6794,13 @@
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="32" t="s">
-        <v>313</v>
+        <v>250</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="K23" s="29"/>
     </row>
@@ -6306,7 +6809,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="22">
@@ -6317,13 +6820,13 @@
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="32" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="K24" s="29"/>
     </row>
@@ -6332,7 +6835,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="22">
@@ -6341,10 +6844,10 @@
       <c r="F25" s="22"/>
       <c r="G25" s="35"/>
       <c r="H25" s="22" t="s">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="J25" s="32"/>
       <c r="K25" s="29"/>
@@ -6354,7 +6857,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="22">
@@ -6365,13 +6868,13 @@
       </c>
       <c r="G26" s="32"/>
       <c r="H26" s="32" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="K26" s="29"/>
     </row>
@@ -6380,7 +6883,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="22">
@@ -6389,10 +6892,10 @@
       <c r="F27" s="22"/>
       <c r="G27" s="35"/>
       <c r="H27" s="22" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="J27" s="32"/>
       <c r="K27" s="29"/>
@@ -6402,7 +6905,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="22">
@@ -6411,13 +6914,13 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="K28" s="29"/>
     </row>
@@ -6426,7 +6929,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="22">
@@ -6436,16 +6939,16 @@
         <v>1</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="K29" s="29"/>
     </row>
@@ -6454,7 +6957,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="22">
@@ -6464,10 +6967,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
@@ -6478,7 +6981,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="22">
@@ -6488,14 +6991,14 @@
         <v>2</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="K31" s="29"/>
     </row>
@@ -6504,7 +7007,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="22">
@@ -6514,16 +7017,16 @@
         <v>2</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="K32" s="29"/>
     </row>
@@ -6532,7 +7035,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="22">
@@ -6542,16 +7045,16 @@
         <v>2</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="K33" s="29"/>
     </row>
@@ -6560,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="22">
@@ -6570,16 +7073,16 @@
         <v>2</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="K34" s="29"/>
     </row>
@@ -6588,7 +7091,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="22">
@@ -6598,16 +7101,16 @@
         <v>2</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="K35" s="29"/>
     </row>
@@ -6616,7 +7119,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="22">
@@ -6627,13 +7130,13 @@
       </c>
       <c r="G36" s="32"/>
       <c r="H36" s="32" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="K36" s="29"/>
     </row>
@@ -6642,7 +7145,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="22">
@@ -6652,16 +7155,16 @@
         <v>3</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="K37" s="29"/>
     </row>
@@ -6670,7 +7173,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="22">
@@ -6680,16 +7183,16 @@
         <v>3</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="K38" s="29"/>
     </row>
@@ -6698,7 +7201,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="22">
@@ -6708,16 +7211,16 @@
         <v>3</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="K39" s="29"/>
     </row>
@@ -6726,7 +7229,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="22">
@@ -6736,14 +7239,14 @@
         <v>4</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="32" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="K40" s="29"/>
     </row>
@@ -6752,7 +7255,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="22">
@@ -6762,16 +7265,16 @@
         <v>4</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="K41" s="29"/>
     </row>
@@ -6780,7 +7283,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="22">
@@ -6790,16 +7293,16 @@
         <v>4</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="K42" s="29"/>
     </row>
@@ -6808,7 +7311,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="22">
@@ -6818,16 +7321,16 @@
         <v>4</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="K43" s="29"/>
     </row>
@@ -6836,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="22">
@@ -6846,16 +7349,16 @@
         <v>4</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="K44" s="29"/>
     </row>
@@ -6864,7 +7367,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="22">
@@ -6874,16 +7377,16 @@
         <v>4</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="J45" s="32" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="K45" s="29"/>
     </row>
@@ -6892,7 +7395,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="22">
@@ -6902,16 +7405,16 @@
         <v>4</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>380</v>
+        <v>317</v>
       </c>
       <c r="K46" s="29"/>
     </row>
@@ -6920,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="22">
@@ -6930,16 +7433,16 @@
         <v>4</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="H47" s="32" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="K47" s="29"/>
     </row>
@@ -6948,7 +7451,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="22">
@@ -6958,16 +7461,16 @@
         <v>4</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="J48" s="32" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="K48" s="29"/>
     </row>
@@ -6976,7 +7479,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="22">
@@ -6986,16 +7489,16 @@
         <v>4</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="H49" s="32" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
       <c r="J49" s="32" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="K49" s="29"/>
     </row>
@@ -7004,7 +7507,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="22">
@@ -7014,16 +7517,16 @@
         <v>4</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>393</v>
+        <v>330</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="K50" s="29"/>
     </row>
@@ -7032,7 +7535,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="22">
@@ -7042,14 +7545,14 @@
         <v>3</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H51" s="32"/>
       <c r="I51" s="32" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="K51" s="29"/>
     </row>
@@ -7058,7 +7561,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="22">
@@ -7068,16 +7571,16 @@
         <v>3</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="K52" s="29"/>
     </row>
@@ -7086,7 +7589,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="22">
@@ -7096,16 +7599,16 @@
         <v>3</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="J53" s="32" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="K53" s="29"/>
     </row>
@@ -7114,7 +7617,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="22">
@@ -7124,16 +7627,16 @@
         <v>3</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="J54" s="32" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="K54" s="29"/>
     </row>
@@ -7142,7 +7645,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="22">
@@ -7152,14 +7655,14 @@
         <v>7</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="H55" s="36"/>
       <c r="I55" s="32" t="s">
-        <v>398</v>
+        <v>335</v>
       </c>
       <c r="J55" s="32" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="K55" s="29"/>
     </row>
@@ -7168,7 +7671,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="22">
@@ -7177,10 +7680,10 @@
       <c r="F56" s="22"/>
       <c r="G56" s="35"/>
       <c r="H56" s="22" t="s">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="I56" s="35" t="s">
-        <v>401</v>
+        <v>338</v>
       </c>
       <c r="J56" s="32"/>
       <c r="K56" s="29"/>
@@ -7190,7 +7693,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="22">
@@ -7200,14 +7703,14 @@
         <v>1</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
       <c r="H57" s="32"/>
       <c r="I57" s="32" t="s">
-        <v>403</v>
+        <v>340</v>
       </c>
       <c r="J57" s="32" t="s">
-        <v>404</v>
+        <v>341</v>
       </c>
       <c r="K57" s="29"/>
     </row>
@@ -7216,7 +7719,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="22">
@@ -7225,10 +7728,10 @@
       <c r="F58" s="22"/>
       <c r="G58" s="35"/>
       <c r="H58" s="22" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I58" s="35" t="s">
-        <v>405</v>
+        <v>342</v>
       </c>
       <c r="J58" s="32"/>
       <c r="K58" s="29"/>
@@ -7238,7 +7741,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="22">
@@ -7248,14 +7751,14 @@
         <v>1</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>406</v>
+        <v>343</v>
       </c>
       <c r="H59" s="32"/>
       <c r="I59" s="32" t="s">
-        <v>407</v>
+        <v>344</v>
       </c>
       <c r="J59" s="32" t="s">
-        <v>408</v>
+        <v>345</v>
       </c>
       <c r="K59" s="29"/>
     </row>
@@ -7264,7 +7767,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="22">
@@ -7273,10 +7776,10 @@
       <c r="F60" s="22"/>
       <c r="G60" s="35"/>
       <c r="H60" s="22" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I60" s="35" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
       <c r="J60" s="32"/>
       <c r="K60" s="29"/>
@@ -7286,7 +7789,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="22">
@@ -7296,14 +7799,14 @@
         <v>1</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H61" s="32"/>
       <c r="I61" s="32" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="K61" s="29"/>
     </row>
@@ -7312,7 +7815,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="22">
@@ -7321,10 +7824,10 @@
       <c r="F62" s="22"/>
       <c r="G62" s="35"/>
       <c r="H62" s="22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I62" s="35" t="s">
-        <v>412</v>
+        <v>349</v>
       </c>
       <c r="J62" s="32"/>
       <c r="K62" s="29"/>
@@ -7334,7 +7837,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="22">
@@ -7344,14 +7847,14 @@
         <v>1</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="H63" s="32"/>
       <c r="I63" s="32" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="J63" s="32" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="K63" s="29"/>
     </row>
@@ -7360,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="22">
@@ -7370,14 +7873,14 @@
         <v>2</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="H64" s="32"/>
       <c r="I64" s="32" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>417</v>
+        <v>354</v>
       </c>
       <c r="K64" s="29"/>
     </row>
@@ -7386,7 +7889,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="22">
@@ -7395,10 +7898,10 @@
       <c r="F65" s="22"/>
       <c r="G65" s="35"/>
       <c r="H65" s="22" t="s">
-        <v>418</v>
+        <v>355</v>
       </c>
       <c r="I65" s="35" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="J65" s="32"/>
       <c r="K65" s="29"/>
@@ -7417,13 +7920,13 @@
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32" t="s">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="I66" s="32" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J66" s="32" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="K66" s="29"/>
     </row>
@@ -7441,13 +7944,13 @@
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="I67" s="32" t="s">
-        <v>422</v>
+        <v>359</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>423</v>
+        <v>360</v>
       </c>
       <c r="K67" s="29"/>
     </row>

--- a/src/test/Prueba.xlsx
+++ b/src/test/Prueba.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Documentos\Kiviu\KiviuNVCH\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B997EFFE-D401-4A7A-B135-3DCDE6E94C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D70EB4C-CEBB-423F-B6E9-37369E26AD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="12" xr2:uid="{B8C9BE44-7E3A-4AF8-B695-6EB949B7B004}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="11" xr2:uid="{B8C9BE44-7E3A-4AF8-B695-6EB949B7B004}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="9" r:id="rId2"/>
-    <sheet name="3" sheetId="10" r:id="rId3"/>
-    <sheet name="4" sheetId="11" r:id="rId4"/>
-    <sheet name="5" sheetId="12" r:id="rId5"/>
-    <sheet name="6" sheetId="13" r:id="rId6"/>
-    <sheet name="7" sheetId="15" r:id="rId7"/>
-    <sheet name="8" sheetId="16" r:id="rId8"/>
-    <sheet name="9" sheetId="17" r:id="rId9"/>
-    <sheet name="10" sheetId="18" r:id="rId10"/>
-    <sheet name="11" sheetId="19" r:id="rId11"/>
-    <sheet name="12" sheetId="20" r:id="rId12"/>
-    <sheet name="13" sheetId="21" r:id="rId13"/>
-    <sheet name="Template" sheetId="7" r:id="rId14"/>
+    <sheet name="Template" sheetId="7" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId2"/>
+    <sheet name="2" sheetId="9" r:id="rId3"/>
+    <sheet name="3" sheetId="10" r:id="rId4"/>
+    <sheet name="4" sheetId="11" r:id="rId5"/>
+    <sheet name="5" sheetId="12" r:id="rId6"/>
+    <sheet name="6" sheetId="13" r:id="rId7"/>
+    <sheet name="7" sheetId="15" r:id="rId8"/>
+    <sheet name="8" sheetId="16" r:id="rId9"/>
+    <sheet name="9" sheetId="17" r:id="rId10"/>
+    <sheet name="10" sheetId="18" r:id="rId11"/>
+    <sheet name="11" sheetId="19" r:id="rId12"/>
+    <sheet name="12" sheetId="20" r:id="rId13"/>
+    <sheet name="13" sheetId="21" r:id="rId14"/>
     <sheet name="Hoja7" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="375">
   <si>
     <t>PRIMERA REVISION</t>
   </si>
@@ -1174,6 +1174,9 @@
   </si>
   <si>
     <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>gustavo.rodriguez@nbch.com.ar</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1385,14 +1388,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1428,6 +1429,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1762,11 +1764,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F59E538-12EF-4159-89BC-BF04CBE825B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AF4BE5-8618-4432-9757-FC016EACB618}">
   <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,13 +1787,13 @@
         <v>175</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>365</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
         <v>176</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>366</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -1821,614 +1823,313 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>177</v>
-      </c>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>96</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="F20" s="10"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>4</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>6</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="4"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <v>7</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2">
-        <v>7</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3</v>
-      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2">
-        <v>97</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1" xr:uid="{CB261A6A-C3D7-4CD8-9FA8-51BC424243B7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D435115D-F096-4DD5-A99E-C27542016BF9}">
-  <dimension ref="B1:L40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B1438-1891-4A24-A504-85908C5669F2}">
+  <dimension ref="B1:L39"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D31"/>
+      <selection activeCell="B3" sqref="B3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,11 +2147,15 @@
       <c r="E1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="20" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -2479,446 +2184,414 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>9</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="6" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="G4" s="6"/>
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>9</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>9</v>
       </c>
-      <c r="C6" s="31">
-        <v>1</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>9</v>
       </c>
-      <c r="C7" s="32">
-        <v>1</v>
-      </c>
-      <c r="D7" s="33">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="C7" s="30">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>9</v>
       </c>
-      <c r="C8" s="32">
-        <v>2</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="C8" s="30">
+        <v>2</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>9</v>
       </c>
-      <c r="C9" s="32">
-        <v>2</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15"/>
+      <c r="C9" s="30">
+        <v>2</v>
+      </c>
+      <c r="D9" s="31">
+        <v>2</v>
+      </c>
+      <c r="E9" s="31"/>
       <c r="F9" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>9</v>
       </c>
-      <c r="C10" s="31">
-        <v>3</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="C10" s="29">
+        <v>3</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="31">
-        <v>3</v>
-      </c>
-      <c r="D11" s="28">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4"/>
+      <c r="C11" s="29">
+        <v>3</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26"/>
       <c r="F11" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <v>9</v>
       </c>
-      <c r="C12" s="31">
-        <v>3</v>
-      </c>
-      <c r="D12" s="28">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="C12" s="29">
+        <v>4</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="28">
+      <c r="B13" s="26">
         <v>9</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>4</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="28">
+      <c r="B14" s="26">
         <v>9</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="29">
         <v>4</v>
       </c>
-      <c r="D14" s="28">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="D14" s="26">
+        <v>2</v>
+      </c>
+      <c r="E14" s="26"/>
       <c r="F14" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="K14" s="8"/>
+        <v>267</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="28">
+      <c r="B15" s="26">
         <v>9</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
         <v>4</v>
       </c>
-      <c r="D15" s="28">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4"/>
+      <c r="D15" s="26">
+        <v>3</v>
+      </c>
+      <c r="E15" s="26"/>
       <c r="F15" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <v>9</v>
       </c>
-      <c r="C16" s="31">
-        <v>4</v>
-      </c>
-      <c r="D16" s="28">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="C16" s="29">
+        <v>5</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="28">
+      <c r="B17" s="26">
         <v>9</v>
       </c>
-      <c r="C17" s="31">
-        <v>5</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G17" s="2"/>
+      <c r="C17" s="29">
+        <v>5</v>
+      </c>
+      <c r="D17" s="26">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="28">
+      <c r="B18" s="26">
         <v>9</v>
       </c>
-      <c r="C18" s="31">
-        <v>5</v>
-      </c>
-      <c r="D18" s="28">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="C18" s="29">
+        <v>5</v>
+      </c>
+      <c r="D18" s="26">
+        <v>2</v>
+      </c>
+      <c r="E18" s="26"/>
       <c r="F18" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="28">
+      <c r="B19" s="26">
         <v>9</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="29">
         <v>6</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
+      <c r="B20" s="26">
         <v>9</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="29">
         <v>6</v>
       </c>
-      <c r="D20" s="28">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4"/>
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26"/>
       <c r="F20" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="28">
+      <c r="B21" s="26">
         <v>9</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="29">
+        <v>6</v>
+      </c>
+      <c r="D21" s="26">
+        <v>2</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>9</v>
+      </c>
+      <c r="C22" s="29">
         <v>7</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>9</v>
+      </c>
+      <c r="C23" s="29">
+        <v>8</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>9</v>
+      </c>
+      <c r="C24" s="29">
+        <v>9</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>9</v>
+      </c>
+      <c r="C25" s="29">
+        <v>9</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="26">
+        <v>9</v>
+      </c>
+      <c r="C26" s="29">
+        <v>9</v>
+      </c>
+      <c r="D26" s="26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="26">
+        <v>9</v>
+      </c>
+      <c r="C27" s="29">
+        <v>10</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="28">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="26">
         <v>9</v>
       </c>
-      <c r="C22" s="31">
-        <v>7</v>
-      </c>
-      <c r="D22" s="28">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="28">
+      <c r="C28" s="29">
+        <v>10</v>
+      </c>
+      <c r="D28" s="26">
+        <v>1</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="26">
         <v>9</v>
       </c>
-      <c r="C23" s="31">
-        <v>8</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="28">
+      <c r="C29" s="29">
+        <v>98</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="26">
         <v>9</v>
       </c>
-      <c r="C24" s="31">
-        <v>8</v>
-      </c>
-      <c r="D24" s="28">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="28">
-        <v>9</v>
-      </c>
-      <c r="C25" s="31">
-        <v>8</v>
-      </c>
-      <c r="D25" s="28">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="28">
-        <v>9</v>
-      </c>
-      <c r="C26" s="31">
-        <v>9</v>
-      </c>
-      <c r="D26" s="28">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="28">
-        <v>9</v>
-      </c>
-      <c r="C27" s="31">
-        <v>9</v>
-      </c>
-      <c r="D27" s="34">
-        <v>1</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="28">
-        <v>9</v>
-      </c>
-      <c r="C28" s="31">
-        <v>96</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="28">
-        <v>9</v>
-      </c>
-      <c r="C29" s="31">
-        <v>97</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="28">
-        <v>9</v>
-      </c>
-      <c r="C30" s="31">
-        <v>98</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="2"/>
+      <c r="C30" s="29">
+        <v>99</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G30" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="28">
-        <v>9</v>
-      </c>
-      <c r="C31" s="31">
-        <v>99</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G31" s="2"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -2926,7 +2599,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
@@ -2939,7 +2612,7 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2948,15 +2621,15 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
@@ -2980,17 +2653,9 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2998,11 +2663,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1691F9BE-88DD-4638-B3C8-E968A1C70225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D435115D-F096-4DD5-A99E-C27542016BF9}">
   <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,15 +2685,11 @@
       <c r="E1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>372</v>
-      </c>
+      <c r="F1" s="24"/>
       <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>373</v>
-      </c>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -3057,362 +2718,446 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G4" s="24"/>
+      <c r="B4" s="27">
+        <v>9</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="6"/>
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="26">
+        <v>9</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="B6" s="26">
+        <v>9</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="26">
+        <v>9</v>
+      </c>
+      <c r="C7" s="30">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15"/>
       <c r="F7" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="B8" s="26">
+        <v>9</v>
+      </c>
+      <c r="C8" s="30">
+        <v>2</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="B9" s="26">
+        <v>9</v>
+      </c>
+      <c r="C9" s="30">
+        <v>2</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15"/>
       <c r="F9" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>300</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="B10" s="26">
+        <v>9</v>
+      </c>
+      <c r="C10" s="29">
+        <v>3</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>4</v>
+      <c r="B11" s="26">
+        <v>9</v>
+      </c>
+      <c r="C11" s="29">
+        <v>3</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>300</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
+      <c r="B12" s="26">
+        <v>9</v>
+      </c>
+      <c r="C12" s="29">
+        <v>3</v>
+      </c>
+      <c r="D12" s="26">
+        <v>2</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>283</v>
+      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="B13" s="26">
+        <v>9</v>
+      </c>
+      <c r="C13" s="29">
+        <v>4</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
+      <c r="B14" s="26">
+        <v>9</v>
+      </c>
+      <c r="C14" s="29">
+        <v>4</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>300</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
+      <c r="B15" s="26">
+        <v>9</v>
+      </c>
+      <c r="C15" s="29">
+        <v>4</v>
+      </c>
+      <c r="D15" s="26">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>300</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="26">
+        <v>9</v>
+      </c>
+      <c r="C16" s="29">
         <v>4</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="26">
+        <v>3</v>
+      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="26">
+        <v>9</v>
+      </c>
+      <c r="C17" s="29">
+        <v>5</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
+        <v>9</v>
+      </c>
+      <c r="C18" s="29">
+        <v>5</v>
+      </c>
+      <c r="D18" s="26">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
+        <v>9</v>
+      </c>
+      <c r="C19" s="29">
+        <v>6</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="26">
+        <v>9</v>
+      </c>
+      <c r="C20" s="29">
+        <v>6</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>9</v>
+      </c>
+      <c r="C21" s="29">
+        <v>7</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>9</v>
+      </c>
+      <c r="C22" s="29">
+        <v>7</v>
+      </c>
+      <c r="D22" s="26">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>9</v>
+      </c>
+      <c r="C23" s="29">
+        <v>8</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>9</v>
+      </c>
+      <c r="C24" s="29">
+        <v>8</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>9</v>
+      </c>
+      <c r="C25" s="29">
+        <v>8</v>
+      </c>
+      <c r="D25" s="26">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="26">
+        <v>9</v>
+      </c>
+      <c r="C26" s="29">
+        <v>9</v>
+      </c>
+      <c r="D26" s="26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>17</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="26">
+        <v>9</v>
+      </c>
+      <c r="C27" s="29">
+        <v>9</v>
+      </c>
+      <c r="D27" s="32">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="26">
+        <v>9</v>
+      </c>
+      <c r="C28" s="29">
+        <v>96</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="26">
+        <v>9</v>
+      </c>
+      <c r="C29" s="29">
+        <v>97</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="26">
+        <v>9</v>
+      </c>
+      <c r="C30" s="29">
         <v>98</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="D30" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="26">
+        <v>9</v>
+      </c>
+      <c r="C31" s="29">
         <v>99</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="D31" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -3420,7 +3165,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
@@ -3492,11 +3237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BF8E7F-879C-4B6B-8BFF-70BE84DBF422}">
-  <dimension ref="B1:L42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1691F9BE-88DD-4638-B3C8-E968A1C70225}">
+  <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3514,11 +3259,15 @@
       <c r="E1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="20" t="s">
+        <v>372</v>
+      </c>
       <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="20" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -3547,601 +3296,446 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="B4" s="13">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="28">
-        <v>12</v>
-      </c>
-      <c r="C5" s="28">
-        <v>96</v>
-      </c>
+      <c r="B5" s="4">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="28">
-        <v>12</v>
-      </c>
-      <c r="C6" s="28">
-        <v>97</v>
+      <c r="B6" s="4">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="L6" s="19"/>
+        <v>238</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="4">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>8</v>
+        <v>301</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="B8" s="4">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="B9" s="4">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>302</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="B10" s="4">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="4">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>304</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="B12" s="4">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>313</v>
+        <v>163</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="4">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
       <c r="F13" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>305</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2"/>
+      <c r="B14" s="4">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
       <c r="F14" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>306</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2"/>
+      <c r="B15" s="4">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>307</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="K16" s="8"/>
+      <c r="B16" s="4">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G17" s="4"/>
+      <c r="B17" s="4">
+        <v>17</v>
+      </c>
+      <c r="C17" s="16">
+        <v>98</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>12</v>
+      <c r="B18" s="4">
+        <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G18" s="4"/>
+      <c r="F18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4" t="s">
-        <v>320</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4" t="s">
-        <v>321</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="4" t="s">
-        <v>323</v>
-      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="4" t="s">
-        <v>325</v>
-      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2">
-        <v>5</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="4" t="s">
-        <v>326</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="4" t="s">
-        <v>328</v>
-      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>3</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="4" t="s">
-        <v>329</v>
-      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2">
-        <v>6</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="4" t="s">
-        <v>330</v>
-      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="4" t="s">
-        <v>331</v>
-      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2">
-        <v>3</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="4" t="s">
-        <v>333</v>
-      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2">
-        <v>4</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2">
-        <v>5</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="4" t="s">
-        <v>336</v>
-      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2">
-        <v>7</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="4" t="s">
-        <v>337</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2">
-        <v>8</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2">
-        <v>2</v>
-      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2">
-        <v>97</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3257EE0-DEAC-4B24-B970-B9794BACAA7E}">
-  <dimension ref="B1:L40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BF8E7F-879C-4B6B-8BFF-70BE84DBF422}">
+  <dimension ref="B1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,11 +3753,11 @@
       <c r="E1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="24"/>
       <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -4193,551 +3787,555 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>182</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="26">
+        <v>12</v>
+      </c>
+      <c r="C5" s="26">
         <v>96</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="B6" s="26">
+        <v>12</v>
+      </c>
+      <c r="C6" s="26">
+        <v>97</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>21</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>185</v>
+        <v>311</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
-        <v>186</v>
+        <v>312</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>21</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="4" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="4" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>21</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="4" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="G16" s="4"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <v>21</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <v>21</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <v>21</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>21</v>
-      </c>
-      <c r="C20" s="7">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <v>21</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="4" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="7">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>21</v>
-      </c>
-      <c r="C23" s="7">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="7">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>21</v>
-      </c>
-      <c r="C25" s="7">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="4" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>21</v>
-      </c>
-      <c r="C26" s="7">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="4" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <v>21</v>
-      </c>
-      <c r="C27" s="7">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="4" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>21</v>
-      </c>
-      <c r="C28" s="7">
-        <v>7</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <v>21</v>
-      </c>
-      <c r="C29" s="7">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="4" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <v>21</v>
-      </c>
-      <c r="C30" s="7">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
       </c>
       <c r="D30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="4" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
-        <v>21</v>
-      </c>
-      <c r="C31" s="7">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="4" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
-        <v>21</v>
-      </c>
-      <c r="C32" s="7">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="4" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
-        <v>21</v>
-      </c>
-      <c r="C33" s="7">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="4" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <v>21</v>
-      </c>
-      <c r="C34" s="7">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="4" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
-        <v>21</v>
-      </c>
-      <c r="C35" s="7">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="4" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
-        <v>21</v>
-      </c>
-      <c r="C36" s="7">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="4" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <v>21</v>
-      </c>
-      <c r="C37" s="7">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="4" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <v>21</v>
-      </c>
-      <c r="C38" s="7">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="4" t="s">
-        <v>364</v>
+        <v>101</v>
       </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
-        <v>21</v>
-      </c>
-      <c r="C39" s="7">
-        <v>97</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G39" s="4"/>
     </row>
@@ -4750,20 +4348,39 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AF4BE5-8618-4432-9757-FC016EACB618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3257EE0-DEAC-4B24-B970-B9794BACAA7E}">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4771,6 +4388,7 @@
     <col min="6" max="6" width="57.140625" customWidth="1"/>
     <col min="7" max="7" width="45.140625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4781,15 +4399,11 @@
       <c r="E1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>178</v>
-      </c>
+      <c r="F1" s="24"/>
       <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>179</v>
-      </c>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -4818,299 +4432,564 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="5">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7">
+        <v>96</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="2">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="2">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="2">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="2">
+        <v>21</v>
+      </c>
+      <c r="C27" s="7">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2">
+        <v>21</v>
+      </c>
+      <c r="C28" s="7">
+        <v>7</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="B29" s="2">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>356</v>
+      </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="2">
+        <v>21</v>
+      </c>
+      <c r="C30" s="7">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2">
+        <v>21</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="2">
+        <v>21</v>
+      </c>
+      <c r="C32" s="7">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="2">
+        <v>21</v>
+      </c>
+      <c r="C33" s="7">
+        <v>9</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="2">
+        <v>21</v>
+      </c>
+      <c r="C34" s="7">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="2">
+        <v>21</v>
+      </c>
+      <c r="C35" s="7">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="B36" s="2">
+        <v>21</v>
+      </c>
+      <c r="C36" s="7">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="2">
+        <v>21</v>
+      </c>
+      <c r="C37" s="7">
+        <v>11</v>
+      </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
+      <c r="B38" s="2">
+        <v>21</v>
+      </c>
+      <c r="C38" s="7">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>364</v>
+      </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="2">
+        <v>21</v>
+      </c>
+      <c r="C39" s="7">
+        <v>97</v>
+      </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="2">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <v>97</v>
+      </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
@@ -5677,140 +5556,140 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5818,10 +5697,675 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F59E538-12EF-4159-89BC-BF04CBE825B4}">
+  <dimension ref="B1:L40"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="57.140625" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>96</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>97</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{CB261A6A-C3D7-4CD8-9FA8-51BC424243B7}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{C4860D81-F4F1-444C-8515-6C99F5BB2236}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074B7793-88BC-41EC-8660-1822E4F4F2E9}">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5837,17 +6381,16 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27"/>
       <c r="E1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>182</v>
       </c>
       <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6394,12 +6937,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58917516-34FD-46AA-93A7-9ABDF580445A}">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7022,12 +7565,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E3D3F3-C0F5-4379-AE72-801160FE2CF3}">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7457,7 +8000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D4F6F8-52FA-49AA-98C5-B0B230CFEBFF}">
   <dimension ref="B1:L40"/>
   <sheetViews>
@@ -8088,7 +8631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF76F6-78CF-499C-8368-EBF7BBB01BDB}">
   <dimension ref="B1:L64"/>
   <sheetViews>
@@ -8148,12 +8691,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="41">
-        <v>2</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="39">
+        <v>2</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="17" t="s">
         <v>104</v>
       </c>
@@ -8161,138 +8704,138 @@
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
-        <v>2</v>
-      </c>
-      <c r="C5" s="34">
-        <v>1</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="B5" s="32">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="18" t="s">
         <v>105</v>
       </c>
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
-        <v>2</v>
-      </c>
-      <c r="C6" s="34">
-        <v>1</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="32">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="18" t="s">
         <v>106</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
-        <v>2</v>
-      </c>
-      <c r="C7" s="34">
-        <v>1</v>
-      </c>
-      <c r="D7" s="34">
-        <v>1</v>
-      </c>
-      <c r="E7" s="34"/>
+      <c r="B7" s="32">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32">
+        <v>1</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32"/>
       <c r="F7" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34">
-        <v>1</v>
-      </c>
-      <c r="D8" s="34">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34"/>
+      <c r="B8" s="32">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1</v>
+      </c>
+      <c r="D8" s="32">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32"/>
       <c r="F8" s="18" t="s">
         <v>107</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
-        <v>2</v>
-      </c>
-      <c r="C9" s="34">
-        <v>1</v>
-      </c>
-      <c r="D9" s="34">
-        <v>3</v>
-      </c>
-      <c r="E9" s="34"/>
+      <c r="B9" s="32">
+        <v>2</v>
+      </c>
+      <c r="C9" s="32">
+        <v>1</v>
+      </c>
+      <c r="D9" s="32">
+        <v>3</v>
+      </c>
+      <c r="E9" s="32"/>
       <c r="F9" s="18" t="s">
         <v>108</v>
       </c>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
-        <v>2</v>
-      </c>
-      <c r="C10" s="34">
-        <v>1</v>
-      </c>
-      <c r="D10" s="42">
+      <c r="B10" s="32">
+        <v>2</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1</v>
+      </c>
+      <c r="D10" s="40">
         <v>4</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="18" t="s">
         <v>110</v>
       </c>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
-        <v>2</v>
-      </c>
-      <c r="C11" s="34">
-        <v>2</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="32">
+        <v>2</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="18" t="s">
         <v>111</v>
       </c>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="34">
-        <v>2</v>
-      </c>
-      <c r="C12" s="34">
-        <v>2</v>
-      </c>
-      <c r="D12" s="34">
-        <v>1</v>
-      </c>
-      <c r="E12" s="34"/>
+      <c r="B12" s="32">
+        <v>2</v>
+      </c>
+      <c r="C12" s="32">
+        <v>2</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32"/>
       <c r="F12" s="18" t="s">
         <v>112</v>
       </c>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
-        <v>2</v>
-      </c>
-      <c r="C13" s="34">
-        <v>2</v>
-      </c>
-      <c r="D13" s="34">
-        <v>1</v>
-      </c>
-      <c r="E13" s="34" t="s">
+      <c r="B13" s="32">
+        <v>2</v>
+      </c>
+      <c r="C13" s="32">
+        <v>2</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>113</v>
       </c>
       <c r="F13" s="18" t="s">
@@ -8301,16 +8844,16 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
-        <v>2</v>
-      </c>
-      <c r="C14" s="34">
-        <v>2</v>
-      </c>
-      <c r="D14" s="34">
-        <v>1</v>
-      </c>
-      <c r="E14" s="34" t="s">
+      <c r="B14" s="32">
+        <v>2</v>
+      </c>
+      <c r="C14" s="32">
+        <v>2</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>115</v>
       </c>
       <c r="F14" s="18" t="s">
@@ -8320,48 +8863,48 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
-        <v>2</v>
-      </c>
-      <c r="C15" s="34">
-        <v>2</v>
-      </c>
-      <c r="D15" s="34">
-        <v>1</v>
-      </c>
-      <c r="E15" s="34"/>
+      <c r="B15" s="32">
+        <v>2</v>
+      </c>
+      <c r="C15" s="32">
+        <v>2</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32"/>
       <c r="F15" s="18" t="s">
         <v>117</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
-        <v>2</v>
-      </c>
-      <c r="C16" s="34">
-        <v>2</v>
-      </c>
-      <c r="D16" s="34">
-        <v>2</v>
-      </c>
-      <c r="E16" s="34"/>
+      <c r="B16" s="32">
+        <v>2</v>
+      </c>
+      <c r="C16" s="32">
+        <v>2</v>
+      </c>
+      <c r="D16" s="32">
+        <v>2</v>
+      </c>
+      <c r="E16" s="32"/>
       <c r="F16" s="18" t="s">
         <v>118</v>
       </c>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
-        <v>2</v>
-      </c>
-      <c r="C17" s="34">
-        <v>2</v>
-      </c>
-      <c r="D17" s="34">
-        <v>2</v>
-      </c>
-      <c r="E17" s="44" t="s">
+      <c r="B17" s="32">
+        <v>2</v>
+      </c>
+      <c r="C17" s="32">
+        <v>2</v>
+      </c>
+      <c r="D17" s="32">
+        <v>2</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>113</v>
       </c>
       <c r="F17" s="18" t="s">
@@ -8370,152 +8913,152 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
-        <v>2</v>
-      </c>
-      <c r="C18" s="34">
-        <v>3</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="43"/>
+      <c r="B18" s="32">
+        <v>2</v>
+      </c>
+      <c r="C18" s="32">
+        <v>3</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="18" t="s">
         <v>120</v>
       </c>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
-        <v>2</v>
-      </c>
-      <c r="C19" s="34">
-        <v>3</v>
-      </c>
-      <c r="D19" s="34">
-        <v>1</v>
-      </c>
-      <c r="E19" s="34"/>
+      <c r="B19" s="32">
+        <v>2</v>
+      </c>
+      <c r="C19" s="32">
+        <v>3</v>
+      </c>
+      <c r="D19" s="32">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32"/>
       <c r="F19" s="18" t="s">
         <v>121</v>
       </c>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="34">
-        <v>2</v>
-      </c>
-      <c r="C20" s="34">
-        <v>3</v>
-      </c>
-      <c r="D20" s="34">
-        <v>2</v>
-      </c>
-      <c r="E20" s="34"/>
+      <c r="B20" s="32">
+        <v>2</v>
+      </c>
+      <c r="C20" s="32">
+        <v>3</v>
+      </c>
+      <c r="D20" s="32">
+        <v>2</v>
+      </c>
+      <c r="E20" s="32"/>
       <c r="F20" s="18" t="s">
         <v>122</v>
       </c>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
-        <v>2</v>
-      </c>
-      <c r="C21" s="34">
-        <v>3</v>
-      </c>
-      <c r="D21" s="42">
-        <v>3</v>
-      </c>
-      <c r="E21" s="34"/>
+      <c r="B21" s="32">
+        <v>2</v>
+      </c>
+      <c r="C21" s="32">
+        <v>3</v>
+      </c>
+      <c r="D21" s="40">
+        <v>3</v>
+      </c>
+      <c r="E21" s="32"/>
       <c r="F21" s="18" t="s">
         <v>123</v>
       </c>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="34">
-        <v>2</v>
-      </c>
-      <c r="C22" s="34">
-        <v>3</v>
-      </c>
-      <c r="D22" s="42">
+      <c r="B22" s="32">
+        <v>2</v>
+      </c>
+      <c r="C22" s="32">
+        <v>3</v>
+      </c>
+      <c r="D22" s="40">
         <v>4</v>
       </c>
-      <c r="E22" s="34"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="18" t="s">
         <v>124</v>
       </c>
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="34">
-        <v>2</v>
-      </c>
-      <c r="C23" s="34">
+      <c r="B23" s="32">
+        <v>2</v>
+      </c>
+      <c r="C23" s="32">
         <v>4</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="43"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="18" t="s">
         <v>125</v>
       </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="34">
-        <v>2</v>
-      </c>
-      <c r="C24" s="34">
+      <c r="B24" s="32">
+        <v>2</v>
+      </c>
+      <c r="C24" s="32">
         <v>4</v>
       </c>
-      <c r="D24" s="34">
-        <v>1</v>
-      </c>
-      <c r="E24" s="34"/>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="32"/>
       <c r="F24" s="18" t="s">
         <v>126</v>
       </c>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="34">
-        <v>2</v>
-      </c>
-      <c r="C25" s="34">
-        <v>5</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="43"/>
+      <c r="B25" s="32">
+        <v>2</v>
+      </c>
+      <c r="C25" s="32">
+        <v>5</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="18" t="s">
         <v>127</v>
       </c>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="34">
-        <v>2</v>
-      </c>
-      <c r="C26" s="34">
-        <v>5</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
+      <c r="B26" s="32">
+        <v>2</v>
+      </c>
+      <c r="C26" s="32">
+        <v>5</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="18" t="s">
         <v>128</v>
       </c>
       <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="34">
-        <v>2</v>
-      </c>
-      <c r="C27" s="34">
-        <v>5</v>
-      </c>
-      <c r="D27" s="34">
-        <v>1</v>
-      </c>
-      <c r="E27" s="34" t="s">
+      <c r="B27" s="32">
+        <v>2</v>
+      </c>
+      <c r="C27" s="32">
+        <v>5</v>
+      </c>
+      <c r="D27" s="32">
+        <v>1</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>113</v>
       </c>
       <c r="F27" s="18" t="s">
@@ -8524,16 +9067,16 @@
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="34">
-        <v>2</v>
-      </c>
-      <c r="C28" s="34">
-        <v>5</v>
-      </c>
-      <c r="D28" s="34">
-        <v>2</v>
-      </c>
-      <c r="E28" s="34" t="s">
+      <c r="B28" s="32">
+        <v>2</v>
+      </c>
+      <c r="C28" s="32">
+        <v>5</v>
+      </c>
+      <c r="D28" s="32">
+        <v>2</v>
+      </c>
+      <c r="E28" s="32" t="s">
         <v>130</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -8542,16 +9085,16 @@
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="34">
-        <v>2</v>
-      </c>
-      <c r="C29" s="34">
-        <v>5</v>
-      </c>
-      <c r="D29" s="34">
-        <v>2</v>
-      </c>
-      <c r="E29" s="34" t="s">
+      <c r="B29" s="32">
+        <v>2</v>
+      </c>
+      <c r="C29" s="32">
+        <v>5</v>
+      </c>
+      <c r="D29" s="32">
+        <v>2</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>113</v>
       </c>
       <c r="F29" s="18" t="s">
@@ -8560,16 +9103,16 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="34">
-        <v>2</v>
-      </c>
-      <c r="C30" s="34">
-        <v>5</v>
-      </c>
-      <c r="D30" s="34">
-        <v>2</v>
-      </c>
-      <c r="E30" s="34" t="s">
+      <c r="B30" s="32">
+        <v>2</v>
+      </c>
+      <c r="C30" s="32">
+        <v>5</v>
+      </c>
+      <c r="D30" s="32">
+        <v>2</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>115</v>
       </c>
       <c r="F30" s="18" t="s">
@@ -8578,16 +9121,16 @@
       <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="34">
-        <v>2</v>
-      </c>
-      <c r="C31" s="34">
-        <v>5</v>
-      </c>
-      <c r="D31" s="34">
-        <v>2</v>
-      </c>
-      <c r="E31" s="34" t="s">
+      <c r="B31" s="32">
+        <v>2</v>
+      </c>
+      <c r="C31" s="32">
+        <v>5</v>
+      </c>
+      <c r="D31" s="32">
+        <v>2</v>
+      </c>
+      <c r="E31" s="32" t="s">
         <v>134</v>
       </c>
       <c r="F31" s="18" t="s">
@@ -8596,16 +9139,16 @@
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="34">
-        <v>2</v>
-      </c>
-      <c r="C32" s="34">
-        <v>5</v>
-      </c>
-      <c r="D32" s="34">
-        <v>2</v>
-      </c>
-      <c r="E32" s="34" t="s">
+      <c r="B32" s="32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="32">
+        <v>5</v>
+      </c>
+      <c r="D32" s="32">
+        <v>2</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>136</v>
       </c>
       <c r="F32" s="18" t="s">
@@ -8614,32 +9157,32 @@
       <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="34">
-        <v>2</v>
-      </c>
-      <c r="C33" s="34">
-        <v>5</v>
-      </c>
-      <c r="D33" s="34">
-        <v>3</v>
-      </c>
-      <c r="E33" s="34"/>
+      <c r="B33" s="32">
+        <v>2</v>
+      </c>
+      <c r="C33" s="32">
+        <v>5</v>
+      </c>
+      <c r="D33" s="32">
+        <v>3</v>
+      </c>
+      <c r="E33" s="32"/>
       <c r="F33" s="18" t="s">
         <v>138</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="34">
-        <v>2</v>
-      </c>
-      <c r="C34" s="34">
-        <v>5</v>
-      </c>
-      <c r="D34" s="34">
-        <v>3</v>
-      </c>
-      <c r="E34" s="44" t="s">
+      <c r="B34" s="32">
+        <v>2</v>
+      </c>
+      <c r="C34" s="32">
+        <v>5</v>
+      </c>
+      <c r="D34" s="32">
+        <v>3</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>113</v>
       </c>
       <c r="F34" s="18" t="s">
@@ -8648,16 +9191,16 @@
       <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="34">
-        <v>2</v>
-      </c>
-      <c r="C35" s="34">
-        <v>5</v>
-      </c>
-      <c r="D35" s="34">
-        <v>3</v>
-      </c>
-      <c r="E35" s="44" t="s">
+      <c r="B35" s="32">
+        <v>2</v>
+      </c>
+      <c r="C35" s="32">
+        <v>5</v>
+      </c>
+      <c r="D35" s="32">
+        <v>3</v>
+      </c>
+      <c r="E35" s="42" t="s">
         <v>115</v>
       </c>
       <c r="F35" s="18" t="s">
@@ -8666,16 +9209,16 @@
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="34">
-        <v>2</v>
-      </c>
-      <c r="C36" s="34">
-        <v>5</v>
-      </c>
-      <c r="D36" s="34">
-        <v>3</v>
-      </c>
-      <c r="E36" s="44" t="s">
+      <c r="B36" s="32">
+        <v>2</v>
+      </c>
+      <c r="C36" s="32">
+        <v>5</v>
+      </c>
+      <c r="D36" s="32">
+        <v>3</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>134</v>
       </c>
       <c r="F36" s="18" t="s">
@@ -8684,16 +9227,16 @@
       <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="34">
-        <v>2</v>
-      </c>
-      <c r="C37" s="34">
-        <v>5</v>
-      </c>
-      <c r="D37" s="34">
+      <c r="B37" s="32">
+        <v>2</v>
+      </c>
+      <c r="C37" s="32">
+        <v>5</v>
+      </c>
+      <c r="D37" s="32">
         <v>4</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="32" t="s">
         <v>142</v>
       </c>
       <c r="F37" s="18" t="s">
@@ -8702,16 +9245,16 @@
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="34">
-        <v>2</v>
-      </c>
-      <c r="C38" s="34">
-        <v>5</v>
-      </c>
-      <c r="D38" s="34">
+      <c r="B38" s="32">
+        <v>2</v>
+      </c>
+      <c r="C38" s="32">
+        <v>5</v>
+      </c>
+      <c r="D38" s="32">
         <v>4</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="32" t="s">
         <v>113</v>
       </c>
       <c r="F38" s="18" t="s">
@@ -8720,16 +9263,16 @@
       <c r="G38" s="18"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="34">
-        <v>2</v>
-      </c>
-      <c r="C39" s="34">
-        <v>5</v>
-      </c>
-      <c r="D39" s="34">
+      <c r="B39" s="32">
+        <v>2</v>
+      </c>
+      <c r="C39" s="32">
+        <v>5</v>
+      </c>
+      <c r="D39" s="32">
         <v>4</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="32" t="s">
         <v>115</v>
       </c>
       <c r="F39" s="18" t="s">
@@ -8738,16 +9281,16 @@
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="34">
-        <v>2</v>
-      </c>
-      <c r="C40" s="34">
-        <v>5</v>
-      </c>
-      <c r="D40" s="34">
+      <c r="B40" s="32">
+        <v>2</v>
+      </c>
+      <c r="C40" s="32">
+        <v>5</v>
+      </c>
+      <c r="D40" s="32">
         <v>4</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="32" t="s">
         <v>113</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -8756,16 +9299,16 @@
       <c r="G40" s="18"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="34">
-        <v>2</v>
-      </c>
-      <c r="C41" s="34">
-        <v>5</v>
-      </c>
-      <c r="D41" s="34">
+      <c r="B41" s="32">
+        <v>2</v>
+      </c>
+      <c r="C41" s="32">
+        <v>5</v>
+      </c>
+      <c r="D41" s="32">
         <v>4</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="32" t="s">
         <v>115</v>
       </c>
       <c r="F41" s="18" t="s">
@@ -8774,16 +9317,16 @@
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="34">
-        <v>2</v>
-      </c>
-      <c r="C42" s="34">
-        <v>5</v>
-      </c>
-      <c r="D42" s="34">
+      <c r="B42" s="32">
+        <v>2</v>
+      </c>
+      <c r="C42" s="32">
+        <v>5</v>
+      </c>
+      <c r="D42" s="32">
         <v>4</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="32" t="s">
         <v>134</v>
       </c>
       <c r="F42" s="18" t="s">
@@ -8792,16 +9335,16 @@
       <c r="G42" s="18"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="34">
-        <v>2</v>
-      </c>
-      <c r="C43" s="34">
-        <v>5</v>
-      </c>
-      <c r="D43" s="34">
+      <c r="B43" s="32">
+        <v>2</v>
+      </c>
+      <c r="C43" s="32">
+        <v>5</v>
+      </c>
+      <c r="D43" s="32">
         <v>4</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="32" t="s">
         <v>136</v>
       </c>
       <c r="F43" s="18" t="s">
@@ -8810,16 +9353,16 @@
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="34">
-        <v>2</v>
-      </c>
-      <c r="C44" s="34">
-        <v>5</v>
-      </c>
-      <c r="D44" s="34">
+      <c r="B44" s="32">
+        <v>2</v>
+      </c>
+      <c r="C44" s="32">
+        <v>5</v>
+      </c>
+      <c r="D44" s="32">
         <v>4</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="32" t="s">
         <v>150</v>
       </c>
       <c r="F44" s="18" t="s">
@@ -8828,16 +9371,16 @@
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="34">
-        <v>2</v>
-      </c>
-      <c r="C45" s="34">
-        <v>5</v>
-      </c>
-      <c r="D45" s="34">
+      <c r="B45" s="32">
+        <v>2</v>
+      </c>
+      <c r="C45" s="32">
+        <v>5</v>
+      </c>
+      <c r="D45" s="32">
         <v>4</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="32" t="s">
         <v>152</v>
       </c>
       <c r="F45" s="18" t="s">
@@ -8846,16 +9389,16 @@
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="34">
-        <v>2</v>
-      </c>
-      <c r="C46" s="34">
-        <v>5</v>
-      </c>
-      <c r="D46" s="34">
+      <c r="B46" s="32">
+        <v>2</v>
+      </c>
+      <c r="C46" s="32">
+        <v>5</v>
+      </c>
+      <c r="D46" s="32">
         <v>4</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="32" t="s">
         <v>154</v>
       </c>
       <c r="F46" s="18" t="s">
@@ -8864,16 +9407,16 @@
       <c r="G46" s="18"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="34">
-        <v>2</v>
-      </c>
-      <c r="C47" s="34">
-        <v>5</v>
-      </c>
-      <c r="D47" s="34">
+      <c r="B47" s="32">
+        <v>2</v>
+      </c>
+      <c r="C47" s="32">
+        <v>5</v>
+      </c>
+      <c r="D47" s="32">
         <v>4</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="32" t="s">
         <v>156</v>
       </c>
       <c r="F47" s="18" t="s">
@@ -8882,16 +9425,16 @@
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="34">
-        <v>2</v>
-      </c>
-      <c r="C48" s="34">
-        <v>5</v>
-      </c>
-      <c r="D48" s="34">
-        <v>3</v>
-      </c>
-      <c r="E48" s="34" t="s">
+      <c r="B48" s="32">
+        <v>2</v>
+      </c>
+      <c r="C48" s="32">
+        <v>5</v>
+      </c>
+      <c r="D48" s="32">
+        <v>3</v>
+      </c>
+      <c r="E48" s="32" t="s">
         <v>84</v>
       </c>
       <c r="F48" s="18" t="s">
@@ -8900,16 +9443,16 @@
       <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="34">
-        <v>2</v>
-      </c>
-      <c r="C49" s="34">
-        <v>5</v>
-      </c>
-      <c r="D49" s="34">
-        <v>3</v>
-      </c>
-      <c r="E49" s="44" t="s">
+      <c r="B49" s="32">
+        <v>2</v>
+      </c>
+      <c r="C49" s="32">
+        <v>5</v>
+      </c>
+      <c r="D49" s="32">
+        <v>3</v>
+      </c>
+      <c r="E49" s="42" t="s">
         <v>113</v>
       </c>
       <c r="F49" s="18" t="s">
@@ -8918,16 +9461,16 @@
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="34">
-        <v>2</v>
-      </c>
-      <c r="C50" s="34">
-        <v>5</v>
-      </c>
-      <c r="D50" s="34">
-        <v>3</v>
-      </c>
-      <c r="E50" s="44" t="s">
+      <c r="B50" s="32">
+        <v>2</v>
+      </c>
+      <c r="C50" s="32">
+        <v>5</v>
+      </c>
+      <c r="D50" s="32">
+        <v>3</v>
+      </c>
+      <c r="E50" s="42" t="s">
         <v>115</v>
       </c>
       <c r="F50" s="18" t="s">
@@ -8936,16 +9479,16 @@
       <c r="G50" s="18"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="34">
-        <v>2</v>
-      </c>
-      <c r="C51" s="34">
-        <v>5</v>
-      </c>
-      <c r="D51" s="34">
-        <v>3</v>
-      </c>
-      <c r="E51" s="44" t="s">
+      <c r="B51" s="32">
+        <v>2</v>
+      </c>
+      <c r="C51" s="32">
+        <v>5</v>
+      </c>
+      <c r="D51" s="32">
+        <v>3</v>
+      </c>
+      <c r="E51" s="42" t="s">
         <v>134</v>
       </c>
       <c r="F51" s="18" t="s">
@@ -8954,16 +9497,16 @@
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="34">
-        <v>2</v>
-      </c>
-      <c r="C52" s="34">
-        <v>5</v>
-      </c>
-      <c r="D52" s="34">
+      <c r="B52" s="32">
+        <v>2</v>
+      </c>
+      <c r="C52" s="32">
+        <v>5</v>
+      </c>
+      <c r="D52" s="32">
         <v>7</v>
       </c>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="42" t="s">
         <v>158</v>
       </c>
       <c r="F52" s="18" t="s">
@@ -8972,30 +9515,30 @@
       <c r="G52" s="18"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="34">
-        <v>2</v>
-      </c>
-      <c r="C53" s="34">
+      <c r="B53" s="32">
+        <v>2</v>
+      </c>
+      <c r="C53" s="32">
         <v>6</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="43"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="18" t="s">
         <v>160</v>
       </c>
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="34">
-        <v>2</v>
-      </c>
-      <c r="C54" s="34">
+      <c r="B54" s="32">
+        <v>2</v>
+      </c>
+      <c r="C54" s="32">
         <v>6</v>
       </c>
-      <c r="D54" s="34">
-        <v>1</v>
-      </c>
-      <c r="E54" s="34" t="s">
+      <c r="D54" s="32">
+        <v>1</v>
+      </c>
+      <c r="E54" s="32" t="s">
         <v>161</v>
       </c>
       <c r="F54" s="18" t="s">
@@ -9004,30 +9547,30 @@
       <c r="G54" s="18"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="34">
-        <v>2</v>
-      </c>
-      <c r="C55" s="34">
+      <c r="B55" s="32">
+        <v>2</v>
+      </c>
+      <c r="C55" s="32">
         <v>7</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="43"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="18" t="s">
         <v>163</v>
       </c>
       <c r="G55" s="18"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="34">
-        <v>2</v>
-      </c>
-      <c r="C56" s="34">
+      <c r="B56" s="32">
+        <v>2</v>
+      </c>
+      <c r="C56" s="32">
         <v>7</v>
       </c>
-      <c r="D56" s="34">
-        <v>1</v>
-      </c>
-      <c r="E56" s="34" t="s">
+      <c r="D56" s="32">
+        <v>1</v>
+      </c>
+      <c r="E56" s="32" t="s">
         <v>164</v>
       </c>
       <c r="F56" s="18" t="s">
@@ -9036,30 +9579,30 @@
       <c r="G56" s="18"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="34">
-        <v>2</v>
-      </c>
-      <c r="C57" s="34">
+      <c r="B57" s="32">
+        <v>2</v>
+      </c>
+      <c r="C57" s="32">
         <v>8</v>
       </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="43"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="18" t="s">
         <v>166</v>
       </c>
       <c r="G57" s="18"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="34">
-        <v>2</v>
-      </c>
-      <c r="C58" s="34">
+      <c r="B58" s="32">
+        <v>2</v>
+      </c>
+      <c r="C58" s="32">
         <v>8</v>
       </c>
-      <c r="D58" s="34">
-        <v>1</v>
-      </c>
-      <c r="E58" s="34" t="s">
+      <c r="D58" s="32">
+        <v>1</v>
+      </c>
+      <c r="E58" s="32" t="s">
         <v>38</v>
       </c>
       <c r="F58" s="18" t="s">
@@ -9068,30 +9611,30 @@
       <c r="G58" s="18"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="34">
-        <v>2</v>
-      </c>
-      <c r="C59" s="34">
+      <c r="B59" s="32">
+        <v>2</v>
+      </c>
+      <c r="C59" s="32">
         <v>9</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="43"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="18" t="s">
         <v>168</v>
       </c>
       <c r="G59" s="18"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="34">
-        <v>2</v>
-      </c>
-      <c r="C60" s="34">
+      <c r="B60" s="32">
+        <v>2</v>
+      </c>
+      <c r="C60" s="32">
         <v>9</v>
       </c>
-      <c r="D60" s="34">
-        <v>1</v>
-      </c>
-      <c r="E60" s="34" t="s">
+      <c r="D60" s="32">
+        <v>1</v>
+      </c>
+      <c r="E60" s="32" t="s">
         <v>169</v>
       </c>
       <c r="F60" s="18" t="s">
@@ -9100,16 +9643,16 @@
       <c r="G60" s="18"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="34">
-        <v>2</v>
-      </c>
-      <c r="C61" s="34">
+      <c r="B61" s="32">
+        <v>2</v>
+      </c>
+      <c r="C61" s="32">
         <v>9</v>
       </c>
-      <c r="D61" s="42">
-        <v>2</v>
-      </c>
-      <c r="E61" s="34" t="s">
+      <c r="D61" s="40">
+        <v>2</v>
+      </c>
+      <c r="E61" s="32" t="s">
         <v>109</v>
       </c>
       <c r="F61" s="18" t="s">
@@ -9118,42 +9661,42 @@
       <c r="G61" s="18"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="34">
-        <v>2</v>
-      </c>
-      <c r="C62" s="34">
+      <c r="B62" s="32">
+        <v>2</v>
+      </c>
+      <c r="C62" s="32">
         <v>8</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="43"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="18" t="s">
         <v>172</v>
       </c>
       <c r="G62" s="18"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="34">
-        <v>2</v>
-      </c>
-      <c r="C63" s="34">
+      <c r="B63" s="32">
+        <v>2</v>
+      </c>
+      <c r="C63" s="32">
         <v>97</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="18" t="s">
         <v>44</v>
       </c>
       <c r="G63" s="18"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="34">
-        <v>2</v>
-      </c>
-      <c r="C64" s="34">
+      <c r="B64" s="32">
+        <v>2</v>
+      </c>
+      <c r="C64" s="32">
         <v>99</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
       <c r="F64" s="18" t="s">
         <v>173</v>
       </c>
@@ -9164,11 +9707,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251E5F1E-48E0-4DAB-AD73-0CFC11F427F6}">
   <dimension ref="B1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
@@ -9227,10 +9770,10 @@
       <c r="B4" s="5">
         <v>5</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="28" t="s">
         <v>182</v>
       </c>
       <c r="E4" s="6"/>
@@ -10188,12 +10731,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA39770-6A0C-4B28-B0B6-453F5100570A}">
   <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E25"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10211,11 +10754,11 @@
       <c r="E1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="24"/>
       <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -10244,12 +10787,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="35">
+      <c r="B4" s="33">
         <v>23</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="21" t="s">
         <v>258</v>
       </c>
@@ -10257,160 +10800,160 @@
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>23</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>23</v>
       </c>
-      <c r="C6" s="37">
-        <v>1</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="2" t="s">
         <v>238</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>23</v>
       </c>
-      <c r="C7" s="38">
-        <v>1</v>
-      </c>
-      <c r="D7" s="33">
-        <v>1</v>
-      </c>
-      <c r="E7" s="33"/>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31"/>
       <c r="F7" s="4" t="s">
         <v>239</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>23</v>
       </c>
-      <c r="C8" s="38">
-        <v>1</v>
-      </c>
-      <c r="D8" s="33">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33"/>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="31">
+        <v>2</v>
+      </c>
+      <c r="E8" s="31"/>
       <c r="F8" s="4" t="s">
         <v>240</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>23</v>
       </c>
-      <c r="C9" s="38">
-        <v>1</v>
-      </c>
-      <c r="D9" s="33">
-        <v>3</v>
-      </c>
-      <c r="E9" s="33"/>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+      <c r="D9" s="31">
+        <v>3</v>
+      </c>
+      <c r="E9" s="31"/>
       <c r="F9" s="4" t="s">
         <v>241</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>23</v>
       </c>
-      <c r="C10" s="38">
-        <v>2</v>
-      </c>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="36">
+        <v>2</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="2" t="s">
         <v>242</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>23</v>
       </c>
-      <c r="C11" s="38">
-        <v>2</v>
-      </c>
-      <c r="D11" s="33">
-        <v>1</v>
-      </c>
-      <c r="E11" s="33"/>
+      <c r="C11" s="36">
+        <v>2</v>
+      </c>
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31"/>
       <c r="F11" s="4" t="s">
         <v>243</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <v>23</v>
       </c>
-      <c r="C12" s="38">
-        <v>2</v>
-      </c>
-      <c r="D12" s="33">
-        <v>2</v>
-      </c>
-      <c r="E12" s="33"/>
+      <c r="C12" s="36">
+        <v>2</v>
+      </c>
+      <c r="D12" s="31">
+        <v>2</v>
+      </c>
+      <c r="E12" s="31"/>
       <c r="F12" s="4" t="s">
         <v>244</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="28">
+      <c r="B13" s="26">
         <v>23</v>
       </c>
-      <c r="C13" s="38">
-        <v>2</v>
-      </c>
-      <c r="D13" s="33">
-        <v>3</v>
-      </c>
-      <c r="E13" s="33"/>
+      <c r="C13" s="36">
+        <v>2</v>
+      </c>
+      <c r="D13" s="31">
+        <v>3</v>
+      </c>
+      <c r="E13" s="31"/>
       <c r="F13" s="4" t="s">
         <v>245</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="28">
+      <c r="B14" s="26">
         <v>23</v>
       </c>
-      <c r="C14" s="37">
-        <v>3</v>
-      </c>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="35">
+        <v>3</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="2" t="s">
         <v>246</v>
       </c>
@@ -10418,176 +10961,176 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="28">
+      <c r="B15" s="26">
         <v>23</v>
       </c>
-      <c r="C15" s="37">
-        <v>3</v>
-      </c>
-      <c r="D15" s="28">
-        <v>1</v>
-      </c>
-      <c r="E15" s="28"/>
+      <c r="C15" s="35">
+        <v>3</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26"/>
       <c r="F15" s="4" t="s">
         <v>247</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <v>23</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="35">
         <v>4</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="28">
+      <c r="B17" s="26">
         <v>23</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="35">
         <v>4</v>
       </c>
-      <c r="D17" s="28">
-        <v>1</v>
-      </c>
-      <c r="E17" s="28"/>
+      <c r="D17" s="26">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26"/>
       <c r="F17" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="28">
+      <c r="B18" s="26">
         <v>23</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="35">
         <v>4</v>
       </c>
-      <c r="D18" s="28">
-        <v>2</v>
-      </c>
-      <c r="E18" s="28"/>
+      <c r="D18" s="26">
+        <v>2</v>
+      </c>
+      <c r="E18" s="26"/>
       <c r="F18" s="4" t="s">
         <v>250</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="28">
+      <c r="B19" s="26">
         <v>23</v>
       </c>
-      <c r="C19" s="37">
-        <v>5</v>
-      </c>
-      <c r="D19" s="28" t="s">
+      <c r="C19" s="35">
+        <v>5</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
+      <c r="B20" s="26">
         <v>23</v>
       </c>
-      <c r="C20" s="37">
-        <v>5</v>
-      </c>
-      <c r="D20" s="28">
-        <v>1</v>
-      </c>
-      <c r="E20" s="28"/>
+      <c r="C20" s="35">
+        <v>5</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26"/>
       <c r="F20" s="4" t="s">
         <v>252</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="28">
+      <c r="B21" s="26">
         <v>23</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="35">
         <v>6</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="2" t="s">
         <v>253</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="28">
+      <c r="B22" s="26">
         <v>23</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="35">
         <v>6</v>
       </c>
-      <c r="D22" s="28">
-        <v>1</v>
-      </c>
-      <c r="E22" s="28"/>
+      <c r="D22" s="26">
+        <v>1</v>
+      </c>
+      <c r="E22" s="26"/>
       <c r="F22" s="4" t="s">
         <v>254</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="28">
+      <c r="B23" s="26">
         <v>23</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="35">
         <v>6</v>
       </c>
-      <c r="D23" s="28">
-        <v>2</v>
-      </c>
-      <c r="E23" s="39"/>
+      <c r="D23" s="26">
+        <v>2</v>
+      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="4" t="s">
         <v>255</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="28">
+      <c r="B24" s="26">
         <v>23</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="35">
         <v>7</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="28"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="2" t="s">
         <v>256</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="28">
+      <c r="B25" s="26">
         <v>23</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="35">
         <v>96</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="2" t="s">
         <v>257</v>
       </c>
@@ -10716,552 +11259,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B1438-1891-4A24-A504-85908C5669F2}">
-  <dimension ref="B1:L40"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="57.140625" customWidth="1"/>
-    <col min="7" max="7" width="45.140625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="29">
-        <v>9</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="30">
-        <v>9</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="28">
-        <v>9</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="28">
-        <v>9</v>
-      </c>
-      <c r="C7" s="31">
-        <v>1</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="28">
-        <v>9</v>
-      </c>
-      <c r="C8" s="32">
-        <v>2</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="28">
-        <v>9</v>
-      </c>
-      <c r="C9" s="32">
-        <v>2</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="28">
-        <v>9</v>
-      </c>
-      <c r="C10" s="32">
-        <v>2</v>
-      </c>
-      <c r="D10" s="33">
-        <v>2</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="28">
-        <v>9</v>
-      </c>
-      <c r="C11" s="31">
-        <v>3</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="28">
-        <v>9</v>
-      </c>
-      <c r="C12" s="31">
-        <v>3</v>
-      </c>
-      <c r="D12" s="28">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="28">
-        <v>9</v>
-      </c>
-      <c r="C13" s="31">
-        <v>4</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="28">
-        <v>9</v>
-      </c>
-      <c r="C14" s="31">
-        <v>4</v>
-      </c>
-      <c r="D14" s="28">
-        <v>1</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="28">
-        <v>9</v>
-      </c>
-      <c r="C15" s="31">
-        <v>4</v>
-      </c>
-      <c r="D15" s="28">
-        <v>2</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="28">
-        <v>9</v>
-      </c>
-      <c r="C16" s="31">
-        <v>4</v>
-      </c>
-      <c r="D16" s="28">
-        <v>3</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="28">
-        <v>9</v>
-      </c>
-      <c r="C17" s="31">
-        <v>5</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="28">
-        <v>9</v>
-      </c>
-      <c r="C18" s="31">
-        <v>5</v>
-      </c>
-      <c r="D18" s="28">
-        <v>1</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="28">
-        <v>9</v>
-      </c>
-      <c r="C19" s="31">
-        <v>5</v>
-      </c>
-      <c r="D19" s="28">
-        <v>2</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
-        <v>9</v>
-      </c>
-      <c r="C20" s="31">
-        <v>6</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="28">
-        <v>9</v>
-      </c>
-      <c r="C21" s="31">
-        <v>6</v>
-      </c>
-      <c r="D21" s="28">
-        <v>1</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="28">
-        <v>9</v>
-      </c>
-      <c r="C22" s="31">
-        <v>6</v>
-      </c>
-      <c r="D22" s="28">
-        <v>2</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="28">
-        <v>9</v>
-      </c>
-      <c r="C23" s="31">
-        <v>7</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="28">
-        <v>9</v>
-      </c>
-      <c r="C24" s="31">
-        <v>8</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="28">
-        <v>9</v>
-      </c>
-      <c r="C25" s="31">
-        <v>9</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="28">
-        <v>9</v>
-      </c>
-      <c r="C26" s="31">
-        <v>9</v>
-      </c>
-      <c r="D26" s="28">
-        <v>1</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="28">
-        <v>9</v>
-      </c>
-      <c r="C27" s="31">
-        <v>9</v>
-      </c>
-      <c r="D27" s="28">
-        <v>2</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="28">
-        <v>9</v>
-      </c>
-      <c r="C28" s="31">
-        <v>10</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="28">
-        <v>9</v>
-      </c>
-      <c r="C29" s="31">
-        <v>10</v>
-      </c>
-      <c r="D29" s="28">
-        <v>1</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="28">
-        <v>9</v>
-      </c>
-      <c r="C30" s="31">
-        <v>98</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="28">
-        <v>9</v>
-      </c>
-      <c r="C31" s="31">
-        <v>99</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>